--- a/运营数据/杭州.xlsx
+++ b/运营数据/杭州.xlsx
@@ -198,10 +198,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
+      <alignment vertical="center" horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
-      <alignment vertical="center" horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
@@ -341,7 +341,7 @@
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>GX20190718173959638</t>
+          <t>GX20190731105706867</t>
         </is>
       </c>
       <c r="B3" s="8" t="inlineStr">
@@ -350,28 +350,28 @@
         </is>
       </c>
       <c r="C3" s="9" t="n">
-        <v>43664.73611111111</v>
+        <v>43677.45625</v>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>黎雪珍</t>
+          <t>钟六海</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>18928842402</t>
+          <t>15018754374</t>
         </is>
       </c>
       <c r="F3" s="12" t="n">
-        <v>43665.458333333336</v>
+        <v>43677.541666666664</v>
       </c>
       <c r="G3" s="13" t="inlineStr">
         <is>
-          <t/>
+          <t>510113198708085016</t>
         </is>
       </c>
       <c r="H3" s="14" t="n">
-        <v>43667.458333333336</v>
+        <v>43679.541666666664</v>
       </c>
       <c r="I3" s="15" t="inlineStr">
         <is>
@@ -380,38 +380,38 @@
       </c>
       <c r="J3" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田千骅萧山店</t>
+          <t>广汽丰田元通城北店</t>
         </is>
       </c>
       <c r="K3" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田千骅萧山店</t>
+          <t>广汽丰田元通城北店</t>
         </is>
       </c>
       <c r="L3" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞双擎</t>
-        </is>
-      </c>
-      <c r="M3" s="19" t="inlineStr">
-        <is>
-          <t>浙ACQ731</t>
-        </is>
-      </c>
-      <c r="N3" s="20" t="n">
-        <v>249.0</v>
-      </c>
-      <c r="O3" s="21" t="inlineStr">
-        <is>
-          <t>已还车</t>
-        </is>
-      </c>
-      <c r="P3" s="22" t="inlineStr">
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N3" s="19" t="n">
+        <v>462.0</v>
+      </c>
+      <c r="O3" s="20" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P3" s="21" t="inlineStr">
         <is>
           <t>到店支付</t>
         </is>
       </c>
-      <c r="Q3" s="23" t="inlineStr">
+      <c r="Q3" s="22" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -420,77 +420,1104 @@
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
+          <t>GX20190730183742396</t>
+        </is>
+      </c>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C4" s="9" t="n">
+        <v>43676.77569444444</v>
+      </c>
+      <c r="D4" s="10" t="inlineStr">
+        <is>
+          <t>13588890427</t>
+        </is>
+      </c>
+      <c r="E4" s="11" t="inlineStr">
+        <is>
+          <t>13588890427</t>
+        </is>
+      </c>
+      <c r="F4" s="12" t="n">
+        <v>43676.708333333336</v>
+      </c>
+      <c r="G4" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H4" s="14" t="n">
+        <v>43682.708333333336</v>
+      </c>
+      <c r="I4" s="15" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="J4" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田元通城北店</t>
+        </is>
+      </c>
+      <c r="K4" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田元通城北店</t>
+        </is>
+      </c>
+      <c r="L4" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M4" s="23" t="inlineStr">
+        <is>
+          <t>浙A5G6E3</t>
+        </is>
+      </c>
+      <c r="N4" s="19" t="n">
+        <v>1470.0</v>
+      </c>
+      <c r="O4" s="20" t="inlineStr">
+        <is>
+          <t>已取车</t>
+        </is>
+      </c>
+      <c r="P4" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q4" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="inlineStr">
+        <is>
+          <t>GX20190730134300270</t>
+        </is>
+      </c>
+      <c r="B5" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C5" s="9" t="n">
+        <v>43676.57152777778</v>
+      </c>
+      <c r="D5" s="10" t="inlineStr">
+        <is>
+          <t>莫燕龙</t>
+        </is>
+      </c>
+      <c r="E5" s="11" t="inlineStr">
+        <is>
+          <t>15068848175</t>
+        </is>
+      </c>
+      <c r="F5" s="12" t="n">
+        <v>43676.666666666664</v>
+      </c>
+      <c r="G5" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H5" s="14" t="n">
+        <v>43678.666666666664</v>
+      </c>
+      <c r="I5" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J5" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="K5" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="L5" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M5" s="23" t="inlineStr">
+        <is>
+          <t>浙A970QT</t>
+        </is>
+      </c>
+      <c r="N5" s="19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O5" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P5" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q5" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="inlineStr">
+        <is>
+          <t>GX20190730105101879</t>
+        </is>
+      </c>
+      <c r="B6" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C6" s="9" t="n">
+        <v>43676.45208333333</v>
+      </c>
+      <c r="D6" s="10" t="inlineStr">
+        <is>
+          <t>何仁富</t>
+        </is>
+      </c>
+      <c r="E6" s="11" t="inlineStr">
+        <is>
+          <t>15268536626</t>
+        </is>
+      </c>
+      <c r="F6" s="12" t="n">
+        <v>43676.541666666664</v>
+      </c>
+      <c r="G6" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H6" s="14" t="n">
+        <v>43678.541666666664</v>
+      </c>
+      <c r="I6" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J6" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="K6" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="L6" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M6" s="23" t="inlineStr">
+        <is>
+          <t>浙A3E1J6</t>
+        </is>
+      </c>
+      <c r="N6" s="19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O6" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P6" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q6" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="inlineStr">
+        <is>
+          <t>GX20190729162740425</t>
+        </is>
+      </c>
+      <c r="B7" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C7" s="9" t="n">
+        <v>43675.68541666667</v>
+      </c>
+      <c r="D7" s="10" t="inlineStr">
+        <is>
+          <t>孙烨涛</t>
+        </is>
+      </c>
+      <c r="E7" s="11" t="inlineStr">
+        <is>
+          <t>18758233285</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="n">
+        <v>43675.729166666664</v>
+      </c>
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H7" s="14" t="n">
+        <v>43677.729166666664</v>
+      </c>
+      <c r="I7" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J7" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="K7" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="L7" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M7" s="23" t="inlineStr">
+        <is>
+          <t>浙AC21X9</t>
+        </is>
+      </c>
+      <c r="N7" s="19" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="O7" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P7" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q7" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>GX20190728093614651</t>
+        </is>
+      </c>
+      <c r="B8" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C8" s="9" t="n">
+        <v>43674.4</v>
+      </c>
+      <c r="D8" s="10" t="inlineStr">
+        <is>
+          <t>蔡舒</t>
+        </is>
+      </c>
+      <c r="E8" s="11" t="inlineStr">
+        <is>
+          <t>18072758719</t>
+        </is>
+      </c>
+      <c r="F8" s="12" t="n">
+        <v>43674.75</v>
+      </c>
+      <c r="G8" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H8" s="14" t="n">
+        <v>43676.75</v>
+      </c>
+      <c r="I8" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J8" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田贵丰临平店</t>
+        </is>
+      </c>
+      <c r="K8" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田贵丰临平店</t>
+        </is>
+      </c>
+      <c r="L8" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M8" s="23" t="inlineStr">
+        <is>
+          <t>浙AX1Z70</t>
+        </is>
+      </c>
+      <c r="N8" s="19" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O8" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P8" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q8" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="inlineStr">
+        <is>
+          <t>GX20190728092736466</t>
+        </is>
+      </c>
+      <c r="B9" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C9" s="9" t="n">
+        <v>43674.39375</v>
+      </c>
+      <c r="D9" s="10" t="inlineStr">
+        <is>
+          <t>13605714505</t>
+        </is>
+      </c>
+      <c r="E9" s="11" t="inlineStr">
+        <is>
+          <t>13605714505</t>
+        </is>
+      </c>
+      <c r="F9" s="12" t="n">
+        <v>43674.479166666664</v>
+      </c>
+      <c r="G9" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H9" s="14" t="n">
+        <v>43676.479166666664</v>
+      </c>
+      <c r="I9" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J9" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田元通城北店</t>
+        </is>
+      </c>
+      <c r="K9" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田元通城北店</t>
+        </is>
+      </c>
+      <c r="L9" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M9" s="23" t="inlineStr">
+        <is>
+          <t>浙A5A6R0</t>
+        </is>
+      </c>
+      <c r="N9" s="19" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="O9" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P9" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q9" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="inlineStr">
+        <is>
+          <t>GX20190727165825749</t>
+        </is>
+      </c>
+      <c r="B10" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C10" s="9" t="n">
+        <v>43673.70694444444</v>
+      </c>
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>楼海兰</t>
+        </is>
+      </c>
+      <c r="E10" s="11" t="inlineStr">
+        <is>
+          <t>13989450533</t>
+        </is>
+      </c>
+      <c r="F10" s="12" t="n">
+        <v>43673.729166666664</v>
+      </c>
+      <c r="G10" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H10" s="14" t="n">
+        <v>43675.729166666664</v>
+      </c>
+      <c r="I10" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J10" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="K10" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="L10" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M10" s="23" t="inlineStr">
+        <is>
+          <t>浙A3E1J6</t>
+        </is>
+      </c>
+      <c r="N10" s="19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O10" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P10" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q10" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="inlineStr">
+        <is>
+          <t>GX20190727144017621</t>
+        </is>
+      </c>
+      <c r="B11" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C11" s="9" t="n">
+        <v>43673.61111111111</v>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>钟六海</t>
+        </is>
+      </c>
+      <c r="E11" s="11" t="inlineStr">
+        <is>
+          <t>15018754374</t>
+        </is>
+      </c>
+      <c r="F11" s="12" t="n">
+        <v>43673.708333333336</v>
+      </c>
+      <c r="G11" s="13" t="inlineStr">
+        <is>
+          <t>510113198708085016</t>
+        </is>
+      </c>
+      <c r="H11" s="14" t="n">
+        <v>43675.708333333336</v>
+      </c>
+      <c r="I11" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J11" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="K11" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="L11" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M11" s="23" t="inlineStr">
+        <is>
+          <t>浙AC21X9</t>
+        </is>
+      </c>
+      <c r="N11" s="19" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O11" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P11" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q11" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="7" t="inlineStr">
+        <is>
+          <t>GX20190727122210057</t>
+        </is>
+      </c>
+      <c r="B12" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C12" s="9" t="n">
+        <v>43673.51527777778</v>
+      </c>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>王为民</t>
+        </is>
+      </c>
+      <c r="E12" s="11" t="inlineStr">
+        <is>
+          <t>13858002607</t>
+        </is>
+      </c>
+      <c r="F12" s="12" t="n">
+        <v>43673.583333333336</v>
+      </c>
+      <c r="G12" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H12" s="14" t="n">
+        <v>43675.583333333336</v>
+      </c>
+      <c r="I12" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J12" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田元通城北店</t>
+        </is>
+      </c>
+      <c r="K12" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田元通城北店</t>
+        </is>
+      </c>
+      <c r="L12" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M12" s="23" t="inlineStr">
+        <is>
+          <t>浙A5G6E3</t>
+        </is>
+      </c>
+      <c r="N12" s="19" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="O12" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P12" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q12" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="7" t="inlineStr">
+        <is>
+          <t>GX20190727114934587</t>
+        </is>
+      </c>
+      <c r="B13" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C13" s="9" t="n">
+        <v>43673.49236111111</v>
+      </c>
+      <c r="D13" s="10" t="inlineStr">
+        <is>
+          <t>tom</t>
+        </is>
+      </c>
+      <c r="E13" s="11" t="inlineStr">
+        <is>
+          <t>13588395741</t>
+        </is>
+      </c>
+      <c r="F13" s="12" t="n">
+        <v>43673.5</v>
+      </c>
+      <c r="G13" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H13" s="14" t="n">
+        <v>43675.5</v>
+      </c>
+      <c r="I13" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J13" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="K13" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="L13" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M13" s="23" t="inlineStr">
+        <is>
+          <t>浙A970QT</t>
+        </is>
+      </c>
+      <c r="N13" s="19" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O13" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P13" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q13" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="7" t="inlineStr">
+        <is>
+          <t>GX20190727093947416</t>
+        </is>
+      </c>
+      <c r="B14" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C14" s="9" t="n">
+        <v>43673.402083333334</v>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
+          <t>位海龙</t>
+        </is>
+      </c>
+      <c r="E14" s="11" t="inlineStr">
+        <is>
+          <t>13777579370</t>
+        </is>
+      </c>
+      <c r="F14" s="12" t="n">
+        <v>43673.5</v>
+      </c>
+      <c r="G14" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H14" s="14" t="n">
+        <v>43676.5</v>
+      </c>
+      <c r="I14" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J14" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田广成富阳店</t>
+        </is>
+      </c>
+      <c r="K14" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田广成富阳店</t>
+        </is>
+      </c>
+      <c r="L14" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M14" s="23" t="inlineStr">
+        <is>
+          <t>浙A9H8E2</t>
+        </is>
+      </c>
+      <c r="N14" s="19" t="n">
+        <v>412.0</v>
+      </c>
+      <c r="O14" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P14" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q14" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="7" t="inlineStr">
+        <is>
+          <t>GX20190727091805021</t>
+        </is>
+      </c>
+      <c r="B15" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C15" s="9" t="n">
+        <v>43673.3875</v>
+      </c>
+      <c r="D15" s="10" t="inlineStr">
+        <is>
+          <t>位海龙</t>
+        </is>
+      </c>
+      <c r="E15" s="11" t="inlineStr">
+        <is>
+          <t>13777579370</t>
+        </is>
+      </c>
+      <c r="F15" s="12" t="n">
+        <v>43673.479166666664</v>
+      </c>
+      <c r="G15" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H15" s="14" t="n">
+        <v>43676.479166666664</v>
+      </c>
+      <c r="I15" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J15" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田广成富阳店</t>
+        </is>
+      </c>
+      <c r="K15" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田广成富阳店</t>
+        </is>
+      </c>
+      <c r="L15" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M15" s="23" t="inlineStr">
+        <is>
+          <t>浙A9H8E2</t>
+        </is>
+      </c>
+      <c r="N15" s="19" t="n">
+        <v>877.0</v>
+      </c>
+      <c r="O15" s="20" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P15" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q15" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="7" t="inlineStr">
+        <is>
+          <t>GX20190718173959638</t>
+        </is>
+      </c>
+      <c r="B16" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C16" s="9" t="n">
+        <v>43664.73611111111</v>
+      </c>
+      <c r="D16" s="10" t="inlineStr">
+        <is>
+          <t>黎雪珍</t>
+        </is>
+      </c>
+      <c r="E16" s="11" t="inlineStr">
+        <is>
+          <t>18928842402</t>
+        </is>
+      </c>
+      <c r="F16" s="12" t="n">
+        <v>43665.458333333336</v>
+      </c>
+      <c r="G16" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H16" s="14" t="n">
+        <v>43667.458333333336</v>
+      </c>
+      <c r="I16" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J16" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田千骅萧山店</t>
+        </is>
+      </c>
+      <c r="K16" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田千骅萧山店</t>
+        </is>
+      </c>
+      <c r="L16" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M16" s="23" t="inlineStr">
+        <is>
+          <t>浙ACQ731</t>
+        </is>
+      </c>
+      <c r="N16" s="19" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="O16" s="20" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P16" s="21" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q16" s="22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="inlineStr">
+        <is>
           <t>GX20190710125646021</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>短租</t>
         </is>
       </c>
-      <c r="C4" s="9" t="n">
+      <c r="C17" s="9" t="n">
         <v>43656.53888888889</v>
       </c>
-      <c r="D4" s="10" t="inlineStr">
+      <c r="D17" s="10" t="inlineStr">
         <is>
           <t>陈慧</t>
         </is>
       </c>
-      <c r="E4" s="11" t="inlineStr">
+      <c r="E17" s="11" t="inlineStr">
         <is>
           <t>13735515800</t>
         </is>
       </c>
-      <c r="F4" s="12" t="n">
+      <c r="F17" s="12" t="n">
         <v>43656.625</v>
       </c>
-      <c r="G4" s="13" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H4" s="14" t="n">
+      <c r="G17" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H17" s="14" t="n">
         <v>43663.625</v>
       </c>
-      <c r="I4" s="15" t="inlineStr">
+      <c r="I17" s="15" t="inlineStr">
         <is>
           <t>7.00</t>
         </is>
       </c>
-      <c r="J4" s="16" t="inlineStr">
+      <c r="J17" s="16" t="inlineStr">
         <is>
           <t>广汽丰田广成富阳店</t>
         </is>
       </c>
-      <c r="K4" s="17" t="inlineStr">
+      <c r="K17" s="17" t="inlineStr">
         <is>
           <t>广汽丰田广成富阳店</t>
         </is>
       </c>
-      <c r="L4" s="18" t="inlineStr">
+      <c r="L17" s="18" t="inlineStr">
         <is>
           <t>C-HR</t>
         </is>
       </c>
-      <c r="M4" s="19" t="inlineStr">
+      <c r="M17" s="23" t="inlineStr">
         <is>
           <t>浙A1G8C7</t>
         </is>
       </c>
-      <c r="N4" s="20" t="n">
+      <c r="N17" s="19" t="n">
         <v>1570.0</v>
       </c>
-      <c r="O4" s="21" t="inlineStr">
+      <c r="O17" s="20" t="inlineStr">
         <is>
           <t>已还车</t>
         </is>
       </c>
-      <c r="P4" s="22" t="inlineStr">
+      <c r="P17" s="21" t="inlineStr">
         <is>
           <t>到店支付</t>
         </is>
       </c>
-      <c r="Q4" s="23" t="inlineStr">
+      <c r="Q17" s="22" t="inlineStr">
         <is>
           <t/>
         </is>

--- a/运营数据/杭州.xlsx
+++ b/运营数据/杭州.xlsx
@@ -198,10 +198,10 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
       <alignment vertical="center" horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyBorder="true" applyFont="true" applyNumberFormat="true">
@@ -341,37 +341,37 @@
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t>GX20190731105706867</t>
+          <t>GX20190819111409876</t>
         </is>
       </c>
       <c r="B3" s="8" t="inlineStr">
         <is>
-          <t>短租</t>
+          <t>深度试驾订单</t>
         </is>
       </c>
       <c r="C3" s="9" t="n">
-        <v>43677.45625</v>
+        <v>43696.46805555555</v>
       </c>
       <c r="D3" s="10" t="inlineStr">
         <is>
-          <t>钟六海</t>
+          <t>严盛星</t>
         </is>
       </c>
       <c r="E3" s="11" t="inlineStr">
         <is>
-          <t>15018754374</t>
+          <t>17764567272</t>
         </is>
       </c>
       <c r="F3" s="12" t="n">
-        <v>43677.541666666664</v>
+        <v>43696.5625</v>
       </c>
       <c r="G3" s="13" t="inlineStr">
         <is>
-          <t>510113198708085016</t>
+          <t/>
         </is>
       </c>
       <c r="H3" s="14" t="n">
-        <v>43679.541666666664</v>
+        <v>43698.5625</v>
       </c>
       <c r="I3" s="15" t="inlineStr">
         <is>
@@ -380,38 +380,38 @@
       </c>
       <c r="J3" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田元通城北店</t>
+          <t>广汽丰田千骅萧山店</t>
         </is>
       </c>
       <c r="K3" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田元通城北店</t>
+          <t>广汽丰田千骅萧山店</t>
         </is>
       </c>
       <c r="L3" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="N3" s="19" t="n">
-        <v>462.0</v>
-      </c>
-      <c r="O3" s="20" t="inlineStr">
-        <is>
-          <t>已取消</t>
-        </is>
-      </c>
-      <c r="P3" s="21" t="inlineStr">
-        <is>
-          <t>到店支付</t>
-        </is>
-      </c>
-      <c r="Q3" s="22" t="inlineStr">
+          <t>凯美瑞</t>
+        </is>
+      </c>
+      <c r="M3" s="19" t="inlineStr">
+        <is>
+          <t>浙AB93C8</t>
+        </is>
+      </c>
+      <c r="N3" s="20" t="n">
+        <v>616.0</v>
+      </c>
+      <c r="O3" s="21" t="inlineStr">
+        <is>
+          <t>已排车</t>
+        </is>
+      </c>
+      <c r="P3" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q3" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -420,7 +420,7 @@
     <row r="4">
       <c r="A4" s="7" t="inlineStr">
         <is>
-          <t>GX20190730183742396</t>
+          <t>GX20190818091654670</t>
         </is>
       </c>
       <c r="B4" s="8" t="inlineStr">
@@ -429,20 +429,20 @@
         </is>
       </c>
       <c r="C4" s="9" t="n">
-        <v>43676.77569444444</v>
+        <v>43695.38611111111</v>
       </c>
       <c r="D4" s="10" t="inlineStr">
         <is>
-          <t>13588890427</t>
+          <t>13857519957</t>
         </is>
       </c>
       <c r="E4" s="11" t="inlineStr">
         <is>
-          <t>13588890427</t>
+          <t>13857519957</t>
         </is>
       </c>
       <c r="F4" s="12" t="n">
-        <v>43676.708333333336</v>
+        <v>43695.479166666664</v>
       </c>
       <c r="G4" s="13" t="inlineStr">
         <is>
@@ -450,47 +450,47 @@
         </is>
       </c>
       <c r="H4" s="14" t="n">
-        <v>43682.708333333336</v>
+        <v>43697.479166666664</v>
       </c>
       <c r="I4" s="15" t="inlineStr">
         <is>
-          <t>6.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J4" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田元通城北店</t>
+          <t>广汽丰田千骅萧山店</t>
         </is>
       </c>
       <c r="K4" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田元通城北店</t>
+          <t>广汽丰田千骅萧山店</t>
         </is>
       </c>
       <c r="L4" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞双擎</t>
-        </is>
-      </c>
-      <c r="M4" s="23" t="inlineStr">
-        <is>
-          <t>浙A5G6E3</t>
-        </is>
-      </c>
-      <c r="N4" s="19" t="n">
-        <v>1470.0</v>
-      </c>
-      <c r="O4" s="20" t="inlineStr">
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M4" s="19" t="inlineStr">
+        <is>
+          <t>浙AN53C5</t>
+        </is>
+      </c>
+      <c r="N4" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O4" s="21" t="inlineStr">
         <is>
           <t>已取车</t>
         </is>
       </c>
-      <c r="P4" s="21" t="inlineStr">
-        <is>
-          <t>到店支付</t>
-        </is>
-      </c>
-      <c r="Q4" s="22" t="inlineStr">
+      <c r="P4" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q4" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -499,37 +499,37 @@
     <row r="5">
       <c r="A5" s="7" t="inlineStr">
         <is>
-          <t>GX20190730134300270</t>
+          <t>GX20190817134905704</t>
         </is>
       </c>
       <c r="B5" s="8" t="inlineStr">
         <is>
-          <t>短租</t>
+          <t>深度试驾订单</t>
         </is>
       </c>
       <c r="C5" s="9" t="n">
-        <v>43676.57152777778</v>
+        <v>43694.575694444444</v>
       </c>
       <c r="D5" s="10" t="inlineStr">
         <is>
-          <t>莫燕龙</t>
+          <t>钟六海</t>
         </is>
       </c>
       <c r="E5" s="11" t="inlineStr">
         <is>
-          <t>15068848175</t>
+          <t>15018754374</t>
         </is>
       </c>
       <c r="F5" s="12" t="n">
-        <v>43676.666666666664</v>
+        <v>43694.708333333336</v>
       </c>
       <c r="G5" s="13" t="inlineStr">
         <is>
-          <t/>
+          <t>510113198708085016</t>
         </is>
       </c>
       <c r="H5" s="14" t="n">
-        <v>43678.666666666664</v>
+        <v>43696.708333333336</v>
       </c>
       <c r="I5" s="15" t="inlineStr">
         <is>
@@ -538,38 +538,38 @@
       </c>
       <c r="J5" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田全通绍兴路店</t>
+          <t>广汽丰田千骅萧山店</t>
         </is>
       </c>
       <c r="K5" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田全通绍兴路店</t>
+          <t>广汽丰田千骅萧山店</t>
         </is>
       </c>
       <c r="L5" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
-        </is>
-      </c>
-      <c r="M5" s="23" t="inlineStr">
-        <is>
-          <t>浙A970QT</t>
-        </is>
-      </c>
-      <c r="N5" s="19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O5" s="20" t="inlineStr">
-        <is>
-          <t>已还车</t>
-        </is>
-      </c>
-      <c r="P5" s="21" t="inlineStr">
-        <is>
-          <t>到店支付</t>
-        </is>
-      </c>
-      <c r="Q5" s="22" t="inlineStr">
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M5" s="19" t="inlineStr">
+        <is>
+          <t>浙ACQ731</t>
+        </is>
+      </c>
+      <c r="N5" s="20" t="n">
+        <v>299.0</v>
+      </c>
+      <c r="O5" s="21" t="inlineStr">
+        <is>
+          <t>已取车</t>
+        </is>
+      </c>
+      <c r="P5" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q5" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -578,7 +578,7 @@
     <row r="6">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>GX20190730105101879</t>
+          <t>GX20190816150433533</t>
         </is>
       </c>
       <c r="B6" s="8" t="inlineStr">
@@ -587,20 +587,20 @@
         </is>
       </c>
       <c r="C6" s="9" t="n">
-        <v>43676.45208333333</v>
+        <v>43693.62777777778</v>
       </c>
       <c r="D6" s="10" t="inlineStr">
         <is>
-          <t>何仁富</t>
+          <t>赵伟</t>
         </is>
       </c>
       <c r="E6" s="11" t="inlineStr">
         <is>
-          <t>15268536626</t>
+          <t>15990168101</t>
         </is>
       </c>
       <c r="F6" s="12" t="n">
-        <v>43676.541666666664</v>
+        <v>43694.375</v>
       </c>
       <c r="G6" s="13" t="inlineStr">
         <is>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="H6" s="14" t="n">
-        <v>43678.541666666664</v>
+        <v>43696.375</v>
       </c>
       <c r="I6" s="15" t="inlineStr">
         <is>
@@ -617,12 +617,12 @@
       </c>
       <c r="J6" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田全通绍兴路店</t>
+          <t>广汽丰田元通城北店</t>
         </is>
       </c>
       <c r="K6" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田全通绍兴路店</t>
+          <t>广汽丰田元通城北店</t>
         </is>
       </c>
       <c r="L6" s="18" t="inlineStr">
@@ -630,25 +630,25 @@
           <t>C-HR</t>
         </is>
       </c>
-      <c r="M6" s="23" t="inlineStr">
-        <is>
-          <t>浙A3E1J6</t>
-        </is>
-      </c>
-      <c r="N6" s="19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O6" s="20" t="inlineStr">
-        <is>
-          <t>已还车</t>
-        </is>
-      </c>
-      <c r="P6" s="21" t="inlineStr">
-        <is>
-          <t>到店支付</t>
-        </is>
-      </c>
-      <c r="Q6" s="22" t="inlineStr">
+      <c r="M6" s="19" t="inlineStr">
+        <is>
+          <t>浙A5A6R0</t>
+        </is>
+      </c>
+      <c r="N6" s="20" t="n">
+        <v>306.0</v>
+      </c>
+      <c r="O6" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P6" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q6" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -657,7 +657,7 @@
     <row r="7">
       <c r="A7" s="7" t="inlineStr">
         <is>
-          <t>GX20190729162740425</t>
+          <t>GX20190814124503502</t>
         </is>
       </c>
       <c r="B7" s="8" t="inlineStr">
@@ -666,20 +666,20 @@
         </is>
       </c>
       <c r="C7" s="9" t="n">
-        <v>43675.68541666667</v>
+        <v>43691.53125</v>
       </c>
       <c r="D7" s="10" t="inlineStr">
         <is>
-          <t>孙烨涛</t>
+          <t>许许教主</t>
         </is>
       </c>
       <c r="E7" s="11" t="inlineStr">
         <is>
-          <t>18758233285</t>
+          <t>15258845718</t>
         </is>
       </c>
       <c r="F7" s="12" t="n">
-        <v>43675.729166666664</v>
+        <v>43691.708333333336</v>
       </c>
       <c r="G7" s="13" t="inlineStr">
         <is>
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="H7" s="14" t="n">
-        <v>43677.729166666664</v>
+        <v>43693.708333333336</v>
       </c>
       <c r="I7" s="15" t="inlineStr">
         <is>
@@ -696,38 +696,38 @@
       </c>
       <c r="J7" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田全通绍兴路店</t>
+          <t>广汽丰田贵丰临平店</t>
         </is>
       </c>
       <c r="K7" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田全通绍兴路店</t>
+          <t>广汽丰田贵丰临平店</t>
         </is>
       </c>
       <c r="L7" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞双擎</t>
-        </is>
-      </c>
-      <c r="M7" s="23" t="inlineStr">
-        <is>
-          <t>浙AC21X9</t>
-        </is>
-      </c>
-      <c r="N7" s="19" t="n">
-        <v>149.0</v>
-      </c>
-      <c r="O7" s="20" t="inlineStr">
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M7" s="19" t="inlineStr">
+        <is>
+          <t>浙AX1Z70</t>
+        </is>
+      </c>
+      <c r="N7" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O7" s="21" t="inlineStr">
         <is>
           <t>已还车</t>
         </is>
       </c>
-      <c r="P7" s="21" t="inlineStr">
-        <is>
-          <t>到店支付</t>
-        </is>
-      </c>
-      <c r="Q7" s="22" t="inlineStr">
+      <c r="P7" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q7" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -736,7 +736,7 @@
     <row r="8">
       <c r="A8" s="7" t="inlineStr">
         <is>
-          <t>GX20190728093614651</t>
+          <t>GX20190814104355428</t>
         </is>
       </c>
       <c r="B8" s="8" t="inlineStr">
@@ -745,20 +745,20 @@
         </is>
       </c>
       <c r="C8" s="9" t="n">
-        <v>43674.4</v>
+        <v>43691.44652777778</v>
       </c>
       <c r="D8" s="10" t="inlineStr">
         <is>
-          <t>蔡舒</t>
+          <t>13905813067</t>
         </is>
       </c>
       <c r="E8" s="11" t="inlineStr">
         <is>
-          <t>18072758719</t>
+          <t>13905813067</t>
         </is>
       </c>
       <c r="F8" s="12" t="n">
-        <v>43674.75</v>
+        <v>43691.5</v>
       </c>
       <c r="G8" s="13" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="H8" s="14" t="n">
-        <v>43676.75</v>
+        <v>43693.5</v>
       </c>
       <c r="I8" s="15" t="inlineStr">
         <is>
@@ -775,38 +775,38 @@
       </c>
       <c r="J8" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田贵丰临平店</t>
+          <t>广汽丰田全通绍兴路店</t>
         </is>
       </c>
       <c r="K8" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田贵丰临平店</t>
+          <t>广汽丰田全通绍兴路店</t>
         </is>
       </c>
       <c r="L8" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
-        </is>
-      </c>
-      <c r="M8" s="23" t="inlineStr">
-        <is>
-          <t>浙AX1Z70</t>
-        </is>
-      </c>
-      <c r="N8" s="19" t="n">
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M8" s="19" t="inlineStr">
+        <is>
+          <t>浙AC21X9</t>
+        </is>
+      </c>
+      <c r="N8" s="20" t="n">
         <v>49.0</v>
       </c>
-      <c r="O8" s="20" t="inlineStr">
+      <c r="O8" s="21" t="inlineStr">
         <is>
           <t>已还车</t>
         </is>
       </c>
-      <c r="P8" s="21" t="inlineStr">
-        <is>
-          <t>到店支付</t>
-        </is>
-      </c>
-      <c r="Q8" s="22" t="inlineStr">
+      <c r="P8" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q8" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -815,7 +815,7 @@
     <row r="9">
       <c r="A9" s="7" t="inlineStr">
         <is>
-          <t>GX20190728092736466</t>
+          <t>GX20190813160233938</t>
         </is>
       </c>
       <c r="B9" s="8" t="inlineStr">
@@ -824,20 +824,20 @@
         </is>
       </c>
       <c r="C9" s="9" t="n">
-        <v>43674.39375</v>
+        <v>43690.66805555556</v>
       </c>
       <c r="D9" s="10" t="inlineStr">
         <is>
-          <t>13605714505</t>
+          <t>15158086576</t>
         </is>
       </c>
       <c r="E9" s="11" t="inlineStr">
         <is>
-          <t>13605714505</t>
+          <t>15158086576</t>
         </is>
       </c>
       <c r="F9" s="12" t="n">
-        <v>43674.479166666664</v>
+        <v>43690.75</v>
       </c>
       <c r="G9" s="13" t="inlineStr">
         <is>
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="H9" s="14" t="n">
-        <v>43676.479166666664</v>
+        <v>43692.75</v>
       </c>
       <c r="I9" s="15" t="inlineStr">
         <is>
@@ -854,38 +854,38 @@
       </c>
       <c r="J9" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田元通城北店</t>
+          <t>广汽丰田千骅萧山店</t>
         </is>
       </c>
       <c r="K9" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田元通城北店</t>
+          <t>广汽丰田千骅萧山店</t>
         </is>
       </c>
       <c r="L9" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
-        </is>
-      </c>
-      <c r="M9" s="23" t="inlineStr">
-        <is>
-          <t>浙A5A6R0</t>
-        </is>
-      </c>
-      <c r="N9" s="19" t="n">
-        <v>99.0</v>
-      </c>
-      <c r="O9" s="20" t="inlineStr">
+          <t>凯美瑞</t>
+        </is>
+      </c>
+      <c r="M9" s="19" t="inlineStr">
+        <is>
+          <t>浙AB93C8</t>
+        </is>
+      </c>
+      <c r="N9" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O9" s="21" t="inlineStr">
         <is>
           <t>已还车</t>
         </is>
       </c>
-      <c r="P9" s="21" t="inlineStr">
-        <is>
-          <t>到店支付</t>
-        </is>
-      </c>
-      <c r="Q9" s="22" t="inlineStr">
+      <c r="P9" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q9" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -894,7 +894,7 @@
     <row r="10">
       <c r="A10" s="7" t="inlineStr">
         <is>
-          <t>GX20190727165825749</t>
+          <t>GX20190811171321962</t>
         </is>
       </c>
       <c r="B10" s="8" t="inlineStr">
@@ -903,20 +903,20 @@
         </is>
       </c>
       <c r="C10" s="9" t="n">
-        <v>43673.70694444444</v>
+        <v>43688.717361111114</v>
       </c>
       <c r="D10" s="10" t="inlineStr">
         <is>
-          <t>楼海兰</t>
+          <t>13968061781</t>
         </is>
       </c>
       <c r="E10" s="11" t="inlineStr">
         <is>
-          <t>13989450533</t>
+          <t>13968061781</t>
         </is>
       </c>
       <c r="F10" s="12" t="n">
-        <v>43673.729166666664</v>
+        <v>43688.75</v>
       </c>
       <c r="G10" s="13" t="inlineStr">
         <is>
@@ -924,7 +924,7 @@
         </is>
       </c>
       <c r="H10" s="14" t="n">
-        <v>43675.729166666664</v>
+        <v>43690.75</v>
       </c>
       <c r="I10" s="15" t="inlineStr">
         <is>
@@ -943,28 +943,28 @@
       </c>
       <c r="L10" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
-        </is>
-      </c>
-      <c r="M10" s="23" t="inlineStr">
-        <is>
-          <t>浙A3E1J6</t>
-        </is>
-      </c>
-      <c r="N10" s="19" t="n">
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M10" s="19" t="inlineStr">
+        <is>
+          <t>浙AC21X9</t>
+        </is>
+      </c>
+      <c r="N10" s="20" t="n">
         <v>0.0</v>
       </c>
-      <c r="O10" s="20" t="inlineStr">
+      <c r="O10" s="21" t="inlineStr">
         <is>
           <t>已还车</t>
         </is>
       </c>
-      <c r="P10" s="21" t="inlineStr">
-        <is>
-          <t>到店支付</t>
-        </is>
-      </c>
-      <c r="Q10" s="22" t="inlineStr">
+      <c r="P10" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q10" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -973,7 +973,7 @@
     <row r="11">
       <c r="A11" s="7" t="inlineStr">
         <is>
-          <t>GX20190727144017621</t>
+          <t>GX20190811143409490</t>
         </is>
       </c>
       <c r="B11" s="8" t="inlineStr">
@@ -982,28 +982,28 @@
         </is>
       </c>
       <c r="C11" s="9" t="n">
-        <v>43673.61111111111</v>
+        <v>43688.606944444444</v>
       </c>
       <c r="D11" s="10" t="inlineStr">
         <is>
-          <t>钟六海</t>
+          <t>倪韩波</t>
         </is>
       </c>
       <c r="E11" s="11" t="inlineStr">
         <is>
-          <t>15018754374</t>
+          <t>15268150326</t>
         </is>
       </c>
       <c r="F11" s="12" t="n">
-        <v>43673.708333333336</v>
+        <v>43688.6875</v>
       </c>
       <c r="G11" s="13" t="inlineStr">
         <is>
-          <t>510113198708085016</t>
+          <t/>
         </is>
       </c>
       <c r="H11" s="14" t="n">
-        <v>43675.708333333336</v>
+        <v>43690.6875</v>
       </c>
       <c r="I11" s="15" t="inlineStr">
         <is>
@@ -1012,38 +1012,38 @@
       </c>
       <c r="J11" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田全通绍兴路店</t>
+          <t>广汽丰田千骅萧山店</t>
         </is>
       </c>
       <c r="K11" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田全通绍兴路店</t>
+          <t>广汽丰田千骅萧山店</t>
         </is>
       </c>
       <c r="L11" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞双擎</t>
-        </is>
-      </c>
-      <c r="M11" s="23" t="inlineStr">
-        <is>
-          <t>浙AC21X9</t>
-        </is>
-      </c>
-      <c r="N11" s="19" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="O11" s="20" t="inlineStr">
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M11" s="19" t="inlineStr">
+        <is>
+          <t>浙AN53C5</t>
+        </is>
+      </c>
+      <c r="N11" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O11" s="21" t="inlineStr">
         <is>
           <t>已还车</t>
         </is>
       </c>
-      <c r="P11" s="21" t="inlineStr">
-        <is>
-          <t>到店支付</t>
-        </is>
-      </c>
-      <c r="Q11" s="22" t="inlineStr">
+      <c r="P11" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q11" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1052,7 +1052,7 @@
     <row r="12">
       <c r="A12" s="7" t="inlineStr">
         <is>
-          <t>GX20190727122210057</t>
+          <t>GX20190811140448183</t>
         </is>
       </c>
       <c r="B12" s="8" t="inlineStr">
@@ -1061,20 +1061,20 @@
         </is>
       </c>
       <c r="C12" s="9" t="n">
-        <v>43673.51527777778</v>
+        <v>43688.58611111111</v>
       </c>
       <c r="D12" s="10" t="inlineStr">
         <is>
-          <t>王为民</t>
+          <t>赵雷</t>
         </is>
       </c>
       <c r="E12" s="11" t="inlineStr">
         <is>
-          <t>13858002607</t>
+          <t>15268580463</t>
         </is>
       </c>
       <c r="F12" s="12" t="n">
-        <v>43673.583333333336</v>
+        <v>43688.6875</v>
       </c>
       <c r="G12" s="13" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         </is>
       </c>
       <c r="H12" s="14" t="n">
-        <v>43675.583333333336</v>
+        <v>43690.6875</v>
       </c>
       <c r="I12" s="15" t="inlineStr">
         <is>
@@ -1091,38 +1091,38 @@
       </c>
       <c r="J12" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田元通城北店</t>
+          <t>广汽丰田千骅萧山店</t>
         </is>
       </c>
       <c r="K12" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田元通城北店</t>
+          <t>广汽丰田千骅萧山店</t>
         </is>
       </c>
       <c r="L12" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞双擎</t>
-        </is>
-      </c>
-      <c r="M12" s="23" t="inlineStr">
-        <is>
-          <t>浙A5G6E3</t>
-        </is>
-      </c>
-      <c r="N12" s="19" t="n">
-        <v>199.0</v>
-      </c>
-      <c r="O12" s="20" t="inlineStr">
+          <t>凯美瑞</t>
+        </is>
+      </c>
+      <c r="M12" s="19" t="inlineStr">
+        <is>
+          <t>浙AA31D7</t>
+        </is>
+      </c>
+      <c r="N12" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O12" s="21" t="inlineStr">
         <is>
           <t>已还车</t>
         </is>
       </c>
-      <c r="P12" s="21" t="inlineStr">
-        <is>
-          <t>到店支付</t>
-        </is>
-      </c>
-      <c r="Q12" s="22" t="inlineStr">
+      <c r="P12" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q12" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1131,7 +1131,7 @@
     <row r="13">
       <c r="A13" s="7" t="inlineStr">
         <is>
-          <t>GX20190727114934587</t>
+          <t>GX20190811100556083</t>
         </is>
       </c>
       <c r="B13" s="8" t="inlineStr">
@@ -1140,20 +1140,20 @@
         </is>
       </c>
       <c r="C13" s="9" t="n">
-        <v>43673.49236111111</v>
+        <v>43688.42013888889</v>
       </c>
       <c r="D13" s="10" t="inlineStr">
         <is>
-          <t>tom</t>
+          <t>王旭峰</t>
         </is>
       </c>
       <c r="E13" s="11" t="inlineStr">
         <is>
-          <t>13588395741</t>
+          <t>15868883012</t>
         </is>
       </c>
       <c r="F13" s="12" t="n">
-        <v>43673.5</v>
+        <v>43688.75</v>
       </c>
       <c r="G13" s="13" t="inlineStr">
         <is>
@@ -1161,7 +1161,7 @@
         </is>
       </c>
       <c r="H13" s="14" t="n">
-        <v>43675.5</v>
+        <v>43690.75</v>
       </c>
       <c r="I13" s="15" t="inlineStr">
         <is>
@@ -1170,38 +1170,38 @@
       </c>
       <c r="J13" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田全通绍兴路店</t>
+          <t>广汽丰田千骅萧山店</t>
         </is>
       </c>
       <c r="K13" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田全通绍兴路店</t>
+          <t>广汽丰田千骅萧山店</t>
         </is>
       </c>
       <c r="L13" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
-        </is>
-      </c>
-      <c r="M13" s="23" t="inlineStr">
-        <is>
-          <t>浙A970QT</t>
-        </is>
-      </c>
-      <c r="N13" s="19" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O13" s="20" t="inlineStr">
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M13" s="19" t="inlineStr">
+        <is>
+          <t>浙ACQ731</t>
+        </is>
+      </c>
+      <c r="N13" s="20" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="O13" s="21" t="inlineStr">
         <is>
           <t>已还车</t>
         </is>
       </c>
-      <c r="P13" s="21" t="inlineStr">
-        <is>
-          <t>到店支付</t>
-        </is>
-      </c>
-      <c r="Q13" s="22" t="inlineStr">
+      <c r="P13" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q13" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1210,7 +1210,7 @@
     <row r="14">
       <c r="A14" s="7" t="inlineStr">
         <is>
-          <t>GX20190727093947416</t>
+          <t>GX20190809174640586</t>
         </is>
       </c>
       <c r="B14" s="8" t="inlineStr">
@@ -1219,20 +1219,20 @@
         </is>
       </c>
       <c r="C14" s="9" t="n">
-        <v>43673.402083333334</v>
+        <v>43686.740277777775</v>
       </c>
       <c r="D14" s="10" t="inlineStr">
         <is>
-          <t>位海龙</t>
+          <t>18072763203</t>
         </is>
       </c>
       <c r="E14" s="11" t="inlineStr">
         <is>
-          <t>13777579370</t>
+          <t>18072763203</t>
         </is>
       </c>
       <c r="F14" s="12" t="n">
-        <v>43673.5</v>
+        <v>43686.74444444444</v>
       </c>
       <c r="G14" s="13" t="inlineStr">
         <is>
@@ -1240,47 +1240,47 @@
         </is>
       </c>
       <c r="H14" s="14" t="n">
-        <v>43676.5</v>
+        <v>43688.74444444444</v>
       </c>
       <c r="I14" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J14" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田广成富阳店</t>
+          <t>广汽丰田全通绍兴路店</t>
         </is>
       </c>
       <c r="K14" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田广成富阳店</t>
+          <t>广汽丰田全通绍兴路店</t>
         </is>
       </c>
       <c r="L14" s="18" t="inlineStr">
         <is>
-          <t>C-HR</t>
-        </is>
-      </c>
-      <c r="M14" s="23" t="inlineStr">
-        <is>
-          <t>浙A9H8E2</t>
-        </is>
-      </c>
-      <c r="N14" s="19" t="n">
-        <v>412.0</v>
-      </c>
-      <c r="O14" s="20" t="inlineStr">
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M14" s="19" t="inlineStr">
+        <is>
+          <t>浙AC21X9</t>
+        </is>
+      </c>
+      <c r="N14" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O14" s="21" t="inlineStr">
         <is>
           <t>已还车</t>
         </is>
       </c>
-      <c r="P14" s="21" t="inlineStr">
-        <is>
-          <t>到店支付</t>
-        </is>
-      </c>
-      <c r="Q14" s="22" t="inlineStr">
+      <c r="P14" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q14" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1289,7 +1289,7 @@
     <row r="15">
       <c r="A15" s="7" t="inlineStr">
         <is>
-          <t>GX20190727091805021</t>
+          <t>GX20190808191925370</t>
         </is>
       </c>
       <c r="B15" s="8" t="inlineStr">
@@ -1298,20 +1298,20 @@
         </is>
       </c>
       <c r="C15" s="9" t="n">
-        <v>43673.3875</v>
+        <v>43685.80486111111</v>
       </c>
       <c r="D15" s="10" t="inlineStr">
         <is>
-          <t>位海龙</t>
+          <t>戴杭飞</t>
         </is>
       </c>
       <c r="E15" s="11" t="inlineStr">
         <is>
-          <t>13777579370</t>
+          <t>15968132773</t>
         </is>
       </c>
       <c r="F15" s="12" t="n">
-        <v>43673.479166666664</v>
+        <v>43685.833333333336</v>
       </c>
       <c r="G15" s="13" t="inlineStr">
         <is>
@@ -1319,21 +1319,21 @@
         </is>
       </c>
       <c r="H15" s="14" t="n">
-        <v>43676.479166666664</v>
+        <v>43687.833333333336</v>
       </c>
       <c r="I15" s="15" t="inlineStr">
         <is>
-          <t>3.00</t>
+          <t>2.00</t>
         </is>
       </c>
       <c r="J15" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田广成富阳店</t>
+          <t>广汽丰田全通绍兴路店</t>
         </is>
       </c>
       <c r="K15" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田广成富阳店</t>
+          <t>广汽丰田全通绍兴路店</t>
         </is>
       </c>
       <c r="L15" s="18" t="inlineStr">
@@ -1341,25 +1341,25 @@
           <t>C-HR</t>
         </is>
       </c>
-      <c r="M15" s="23" t="inlineStr">
-        <is>
-          <t>浙A9H8E2</t>
-        </is>
-      </c>
-      <c r="N15" s="19" t="n">
-        <v>877.0</v>
-      </c>
-      <c r="O15" s="20" t="inlineStr">
-        <is>
-          <t>已取消</t>
-        </is>
-      </c>
-      <c r="P15" s="21" t="inlineStr">
-        <is>
-          <t>到店支付</t>
-        </is>
-      </c>
-      <c r="Q15" s="22" t="inlineStr">
+      <c r="M15" s="19" t="inlineStr">
+        <is>
+          <t>浙A970QT</t>
+        </is>
+      </c>
+      <c r="N15" s="20" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="O15" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P15" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q15" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1368,7 +1368,7 @@
     <row r="16">
       <c r="A16" s="7" t="inlineStr">
         <is>
-          <t>GX20190718173959638</t>
+          <t>GX20190807140902391</t>
         </is>
       </c>
       <c r="B16" s="8" t="inlineStr">
@@ -1377,20 +1377,20 @@
         </is>
       </c>
       <c r="C16" s="9" t="n">
-        <v>43664.73611111111</v>
+        <v>43684.589583333334</v>
       </c>
       <c r="D16" s="10" t="inlineStr">
         <is>
-          <t>黎雪珍</t>
+          <t>18072763203</t>
         </is>
       </c>
       <c r="E16" s="11" t="inlineStr">
         <is>
-          <t>18928842402</t>
+          <t>18072763203</t>
         </is>
       </c>
       <c r="F16" s="12" t="n">
-        <v>43665.458333333336</v>
+        <v>43684.625</v>
       </c>
       <c r="G16" s="13" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         </is>
       </c>
       <c r="H16" s="14" t="n">
-        <v>43667.458333333336</v>
+        <v>43686.625</v>
       </c>
       <c r="I16" s="15" t="inlineStr">
         <is>
@@ -1407,38 +1407,38 @@
       </c>
       <c r="J16" s="16" t="inlineStr">
         <is>
-          <t>广汽丰田千骅萧山店</t>
+          <t>广汽丰田全通绍兴路店</t>
         </is>
       </c>
       <c r="K16" s="17" t="inlineStr">
         <is>
-          <t>广汽丰田千骅萧山店</t>
+          <t>广汽丰田全通绍兴路店</t>
         </is>
       </c>
       <c r="L16" s="18" t="inlineStr">
         <is>
-          <t>第八代凯美瑞双擎</t>
-        </is>
-      </c>
-      <c r="M16" s="23" t="inlineStr">
-        <is>
-          <t>浙ACQ731</t>
-        </is>
-      </c>
-      <c r="N16" s="19" t="n">
-        <v>249.0</v>
-      </c>
-      <c r="O16" s="20" t="inlineStr">
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M16" s="19" t="inlineStr">
+        <is>
+          <t>浙A3E1J6</t>
+        </is>
+      </c>
+      <c r="N16" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O16" s="21" t="inlineStr">
         <is>
           <t>已还车</t>
         </is>
       </c>
-      <c r="P16" s="21" t="inlineStr">
-        <is>
-          <t>到店支付</t>
-        </is>
-      </c>
-      <c r="Q16" s="22" t="inlineStr">
+      <c r="P16" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q16" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -1447,77 +1447,1815 @@
     <row r="17">
       <c r="A17" s="7" t="inlineStr">
         <is>
+          <t>GX20190806194340706</t>
+        </is>
+      </c>
+      <c r="B17" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C17" s="9" t="n">
+        <v>43683.82152777778</v>
+      </c>
+      <c r="D17" s="10" t="inlineStr">
+        <is>
+          <t>13588890427</t>
+        </is>
+      </c>
+      <c r="E17" s="11" t="inlineStr">
+        <is>
+          <t>13588890427</t>
+        </is>
+      </c>
+      <c r="F17" s="12" t="n">
+        <v>43683.5</v>
+      </c>
+      <c r="G17" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H17" s="14" t="n">
+        <v>43687.5</v>
+      </c>
+      <c r="I17" s="15" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="J17" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田元通城北店</t>
+        </is>
+      </c>
+      <c r="K17" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田元通城北店</t>
+        </is>
+      </c>
+      <c r="L17" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M17" s="19" t="inlineStr">
+        <is>
+          <t>浙A5G6E3</t>
+        </is>
+      </c>
+      <c r="N17" s="20" t="n">
+        <v>1087.0</v>
+      </c>
+      <c r="O17" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P17" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q17" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="7" t="inlineStr">
+        <is>
+          <t>GX20190806180541060</t>
+        </is>
+      </c>
+      <c r="B18" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C18" s="9" t="n">
+        <v>43683.75347222222</v>
+      </c>
+      <c r="D18" s="10" t="inlineStr">
+        <is>
+          <t>陈霞</t>
+        </is>
+      </c>
+      <c r="E18" s="11" t="inlineStr">
+        <is>
+          <t>15958111762</t>
+        </is>
+      </c>
+      <c r="F18" s="12" t="n">
+        <v>43683.75347222222</v>
+      </c>
+      <c r="G18" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H18" s="14" t="n">
+        <v>43685.75347222222</v>
+      </c>
+      <c r="I18" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J18" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="K18" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="L18" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M18" s="19" t="inlineStr">
+        <is>
+          <t>浙AC21X9</t>
+        </is>
+      </c>
+      <c r="N18" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O18" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P18" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q18" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="7" t="inlineStr">
+        <is>
+          <t>GX20190805132708849</t>
+        </is>
+      </c>
+      <c r="B19" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C19" s="9" t="n">
+        <v>43682.56041666667</v>
+      </c>
+      <c r="D19" s="10" t="inlineStr">
+        <is>
+          <t>沈璐琪</t>
+        </is>
+      </c>
+      <c r="E19" s="11" t="inlineStr">
+        <is>
+          <t>13615814017</t>
+        </is>
+      </c>
+      <c r="F19" s="12" t="n">
+        <v>43682.5625</v>
+      </c>
+      <c r="G19" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H19" s="14" t="n">
+        <v>43686.5625</v>
+      </c>
+      <c r="I19" s="15" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="J19" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田贵丰临平店</t>
+        </is>
+      </c>
+      <c r="K19" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田贵丰临平店</t>
+        </is>
+      </c>
+      <c r="L19" s="18" t="inlineStr">
+        <is>
+          <t>凯美瑞</t>
+        </is>
+      </c>
+      <c r="M19" s="19" t="inlineStr">
+        <is>
+          <t>浙A0J2K3</t>
+        </is>
+      </c>
+      <c r="N19" s="20" t="n">
+        <v>1028.0</v>
+      </c>
+      <c r="O19" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P19" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q19" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="7" t="inlineStr">
+        <is>
+          <t>GX20190804161400871</t>
+        </is>
+      </c>
+      <c r="B20" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C20" s="9" t="n">
+        <v>43681.67638888889</v>
+      </c>
+      <c r="D20" s="10" t="inlineStr">
+        <is>
+          <t>18768498488</t>
+        </is>
+      </c>
+      <c r="E20" s="11" t="inlineStr">
+        <is>
+          <t>18768498488</t>
+        </is>
+      </c>
+      <c r="F20" s="12" t="n">
+        <v>43681.75</v>
+      </c>
+      <c r="G20" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H20" s="14" t="n">
+        <v>43683.75</v>
+      </c>
+      <c r="I20" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J20" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="K20" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="L20" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M20" s="19" t="inlineStr">
+        <is>
+          <t>浙AC21X9</t>
+        </is>
+      </c>
+      <c r="N20" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O20" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P20" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q20" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="7" t="inlineStr">
+        <is>
+          <t>GX20190803154021791</t>
+        </is>
+      </c>
+      <c r="B21" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C21" s="9" t="n">
+        <v>43680.65277777778</v>
+      </c>
+      <c r="D21" s="10" t="inlineStr">
+        <is>
+          <t>沈金漂</t>
+        </is>
+      </c>
+      <c r="E21" s="11" t="inlineStr">
+        <is>
+          <t>13819161922</t>
+        </is>
+      </c>
+      <c r="F21" s="12" t="n">
+        <v>43680.75</v>
+      </c>
+      <c r="G21" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H21" s="14" t="n">
+        <v>43682.75</v>
+      </c>
+      <c r="I21" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J21" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田千骅萧山店</t>
+        </is>
+      </c>
+      <c r="K21" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田千骅萧山店</t>
+        </is>
+      </c>
+      <c r="L21" s="18" t="inlineStr">
+        <is>
+          <t>凯美瑞</t>
+        </is>
+      </c>
+      <c r="M21" s="19" t="inlineStr">
+        <is>
+          <t>浙AB93C8</t>
+        </is>
+      </c>
+      <c r="N21" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O21" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P21" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q21" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="7" t="inlineStr">
+        <is>
+          <t>GX20190803153737506</t>
+        </is>
+      </c>
+      <c r="B22" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C22" s="9" t="n">
+        <v>43680.65069444444</v>
+      </c>
+      <c r="D22" s="10" t="inlineStr">
+        <is>
+          <t>沈金漂</t>
+        </is>
+      </c>
+      <c r="E22" s="11" t="inlineStr">
+        <is>
+          <t>13819161922</t>
+        </is>
+      </c>
+      <c r="F22" s="12" t="n">
+        <v>43680.75</v>
+      </c>
+      <c r="G22" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H22" s="14" t="n">
+        <v>43682.75</v>
+      </c>
+      <c r="I22" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J22" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田千骅萧山店</t>
+        </is>
+      </c>
+      <c r="K22" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田千骅萧山店</t>
+        </is>
+      </c>
+      <c r="L22" s="18" t="inlineStr">
+        <is>
+          <t>凯美瑞</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N22" s="20" t="n">
+        <v>434.0</v>
+      </c>
+      <c r="O22" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P22" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q22" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="7" t="inlineStr">
+        <is>
+          <t>GX20190803083741813</t>
+        </is>
+      </c>
+      <c r="B23" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C23" s="9" t="n">
+        <v>43680.35902777778</v>
+      </c>
+      <c r="D23" s="10" t="inlineStr">
+        <is>
+          <t>徐德福</t>
+        </is>
+      </c>
+      <c r="E23" s="11" t="inlineStr">
+        <is>
+          <t>13588370298</t>
+        </is>
+      </c>
+      <c r="F23" s="12" t="n">
+        <v>43680.458333333336</v>
+      </c>
+      <c r="G23" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H23" s="14" t="n">
+        <v>43710.458333333336</v>
+      </c>
+      <c r="I23" s="15" t="inlineStr">
+        <is>
+          <t>30.00</t>
+        </is>
+      </c>
+      <c r="J23" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田广成富阳店</t>
+        </is>
+      </c>
+      <c r="K23" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田广成富阳店</t>
+        </is>
+      </c>
+      <c r="L23" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M23" s="19" t="inlineStr">
+        <is>
+          <t>浙A1G8C7</t>
+        </is>
+      </c>
+      <c r="N23" s="20" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="O23" s="21" t="inlineStr">
+        <is>
+          <t>已取车</t>
+        </is>
+      </c>
+      <c r="P23" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q23" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="7" t="inlineStr">
+        <is>
+          <t>GX20190802172601875</t>
+        </is>
+      </c>
+      <c r="B24" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C24" s="9" t="n">
+        <v>43679.72638888889</v>
+      </c>
+      <c r="D24" s="10" t="inlineStr">
+        <is>
+          <t>孔令双</t>
+        </is>
+      </c>
+      <c r="E24" s="11" t="inlineStr">
+        <is>
+          <t>15157182567</t>
+        </is>
+      </c>
+      <c r="F24" s="12" t="n">
+        <v>43679.75</v>
+      </c>
+      <c r="G24" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H24" s="14" t="n">
+        <v>43681.75</v>
+      </c>
+      <c r="I24" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J24" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="K24" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="L24" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M24" s="19" t="inlineStr">
+        <is>
+          <t>浙AC21X9</t>
+        </is>
+      </c>
+      <c r="N24" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O24" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P24" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q24" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="7" t="inlineStr">
+        <is>
+          <t>GX20190731105706867</t>
+        </is>
+      </c>
+      <c r="B25" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C25" s="9" t="n">
+        <v>43677.45625</v>
+      </c>
+      <c r="D25" s="10" t="inlineStr">
+        <is>
+          <t>钟六海</t>
+        </is>
+      </c>
+      <c r="E25" s="11" t="inlineStr">
+        <is>
+          <t>15018754374</t>
+        </is>
+      </c>
+      <c r="F25" s="12" t="n">
+        <v>43677.541666666664</v>
+      </c>
+      <c r="G25" s="13" t="inlineStr">
+        <is>
+          <t>510113198708085016</t>
+        </is>
+      </c>
+      <c r="H25" s="14" t="n">
+        <v>43679.541666666664</v>
+      </c>
+      <c r="I25" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J25" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田元通城北店</t>
+        </is>
+      </c>
+      <c r="K25" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田元通城北店</t>
+        </is>
+      </c>
+      <c r="L25" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="N25" s="20" t="n">
+        <v>462.0</v>
+      </c>
+      <c r="O25" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P25" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q25" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="7" t="inlineStr">
+        <is>
+          <t>GX20190730183742396</t>
+        </is>
+      </c>
+      <c r="B26" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C26" s="9" t="n">
+        <v>43676.77569444444</v>
+      </c>
+      <c r="D26" s="10" t="inlineStr">
+        <is>
+          <t>13588890427</t>
+        </is>
+      </c>
+      <c r="E26" s="11" t="inlineStr">
+        <is>
+          <t>13588890427</t>
+        </is>
+      </c>
+      <c r="F26" s="12" t="n">
+        <v>43676.708333333336</v>
+      </c>
+      <c r="G26" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H26" s="14" t="n">
+        <v>43682.708333333336</v>
+      </c>
+      <c r="I26" s="15" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="J26" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田元通城北店</t>
+        </is>
+      </c>
+      <c r="K26" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田元通城北店</t>
+        </is>
+      </c>
+      <c r="L26" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M26" s="19" t="inlineStr">
+        <is>
+          <t>浙A5G6E3</t>
+        </is>
+      </c>
+      <c r="N26" s="20" t="n">
+        <v>1470.0</v>
+      </c>
+      <c r="O26" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P26" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q26" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="7" t="inlineStr">
+        <is>
+          <t>GX20190730134300270</t>
+        </is>
+      </c>
+      <c r="B27" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C27" s="9" t="n">
+        <v>43676.57152777778</v>
+      </c>
+      <c r="D27" s="10" t="inlineStr">
+        <is>
+          <t>莫燕龙</t>
+        </is>
+      </c>
+      <c r="E27" s="11" t="inlineStr">
+        <is>
+          <t>15068848175</t>
+        </is>
+      </c>
+      <c r="F27" s="12" t="n">
+        <v>43676.666666666664</v>
+      </c>
+      <c r="G27" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H27" s="14" t="n">
+        <v>43678.666666666664</v>
+      </c>
+      <c r="I27" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J27" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="K27" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="L27" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M27" s="19" t="inlineStr">
+        <is>
+          <t>浙A970QT</t>
+        </is>
+      </c>
+      <c r="N27" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O27" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P27" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q27" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="7" t="inlineStr">
+        <is>
+          <t>GX20190730105101879</t>
+        </is>
+      </c>
+      <c r="B28" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C28" s="9" t="n">
+        <v>43676.45208333333</v>
+      </c>
+      <c r="D28" s="10" t="inlineStr">
+        <is>
+          <t>何仁富</t>
+        </is>
+      </c>
+      <c r="E28" s="11" t="inlineStr">
+        <is>
+          <t>15268536626</t>
+        </is>
+      </c>
+      <c r="F28" s="12" t="n">
+        <v>43676.541666666664</v>
+      </c>
+      <c r="G28" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H28" s="14" t="n">
+        <v>43678.541666666664</v>
+      </c>
+      <c r="I28" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J28" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="K28" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="L28" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M28" s="19" t="inlineStr">
+        <is>
+          <t>浙A3E1J6</t>
+        </is>
+      </c>
+      <c r="N28" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O28" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P28" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q28" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="7" t="inlineStr">
+        <is>
+          <t>GX20190729162740425</t>
+        </is>
+      </c>
+      <c r="B29" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C29" s="9" t="n">
+        <v>43675.68541666667</v>
+      </c>
+      <c r="D29" s="10" t="inlineStr">
+        <is>
+          <t>孙烨涛</t>
+        </is>
+      </c>
+      <c r="E29" s="11" t="inlineStr">
+        <is>
+          <t>18758233285</t>
+        </is>
+      </c>
+      <c r="F29" s="12" t="n">
+        <v>43675.729166666664</v>
+      </c>
+      <c r="G29" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H29" s="14" t="n">
+        <v>43677.729166666664</v>
+      </c>
+      <c r="I29" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J29" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="K29" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="L29" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M29" s="19" t="inlineStr">
+        <is>
+          <t>浙AC21X9</t>
+        </is>
+      </c>
+      <c r="N29" s="20" t="n">
+        <v>149.0</v>
+      </c>
+      <c r="O29" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P29" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q29" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="7" t="inlineStr">
+        <is>
+          <t>GX20190728093614651</t>
+        </is>
+      </c>
+      <c r="B30" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C30" s="9" t="n">
+        <v>43674.4</v>
+      </c>
+      <c r="D30" s="10" t="inlineStr">
+        <is>
+          <t>蔡舒</t>
+        </is>
+      </c>
+      <c r="E30" s="11" t="inlineStr">
+        <is>
+          <t>18072758719</t>
+        </is>
+      </c>
+      <c r="F30" s="12" t="n">
+        <v>43674.75</v>
+      </c>
+      <c r="G30" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H30" s="14" t="n">
+        <v>43676.75</v>
+      </c>
+      <c r="I30" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J30" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田贵丰临平店</t>
+        </is>
+      </c>
+      <c r="K30" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田贵丰临平店</t>
+        </is>
+      </c>
+      <c r="L30" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M30" s="19" t="inlineStr">
+        <is>
+          <t>浙AX1Z70</t>
+        </is>
+      </c>
+      <c r="N30" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O30" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P30" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q30" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="7" t="inlineStr">
+        <is>
+          <t>GX20190728092736466</t>
+        </is>
+      </c>
+      <c r="B31" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C31" s="9" t="n">
+        <v>43674.39375</v>
+      </c>
+      <c r="D31" s="10" t="inlineStr">
+        <is>
+          <t>13605714505</t>
+        </is>
+      </c>
+      <c r="E31" s="11" t="inlineStr">
+        <is>
+          <t>13605714505</t>
+        </is>
+      </c>
+      <c r="F31" s="12" t="n">
+        <v>43674.479166666664</v>
+      </c>
+      <c r="G31" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H31" s="14" t="n">
+        <v>43676.479166666664</v>
+      </c>
+      <c r="I31" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J31" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田元通城北店</t>
+        </is>
+      </c>
+      <c r="K31" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田元通城北店</t>
+        </is>
+      </c>
+      <c r="L31" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M31" s="19" t="inlineStr">
+        <is>
+          <t>浙A5A6R0</t>
+        </is>
+      </c>
+      <c r="N31" s="20" t="n">
+        <v>99.0</v>
+      </c>
+      <c r="O31" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P31" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q31" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="7" t="inlineStr">
+        <is>
+          <t>GX20190727165825749</t>
+        </is>
+      </c>
+      <c r="B32" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C32" s="9" t="n">
+        <v>43673.70694444444</v>
+      </c>
+      <c r="D32" s="10" t="inlineStr">
+        <is>
+          <t>楼海兰</t>
+        </is>
+      </c>
+      <c r="E32" s="11" t="inlineStr">
+        <is>
+          <t>13989450533</t>
+        </is>
+      </c>
+      <c r="F32" s="12" t="n">
+        <v>43673.729166666664</v>
+      </c>
+      <c r="G32" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H32" s="14" t="n">
+        <v>43675.729166666664</v>
+      </c>
+      <c r="I32" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J32" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="K32" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="L32" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M32" s="19" t="inlineStr">
+        <is>
+          <t>浙A3E1J6</t>
+        </is>
+      </c>
+      <c r="N32" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O32" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P32" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q32" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="7" t="inlineStr">
+        <is>
+          <t>GX20190727144017621</t>
+        </is>
+      </c>
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C33" s="9" t="n">
+        <v>43673.61111111111</v>
+      </c>
+      <c r="D33" s="10" t="inlineStr">
+        <is>
+          <t>钟六海</t>
+        </is>
+      </c>
+      <c r="E33" s="11" t="inlineStr">
+        <is>
+          <t>15018754374</t>
+        </is>
+      </c>
+      <c r="F33" s="12" t="n">
+        <v>43673.708333333336</v>
+      </c>
+      <c r="G33" s="13" t="inlineStr">
+        <is>
+          <t>510113198708085016</t>
+        </is>
+      </c>
+      <c r="H33" s="14" t="n">
+        <v>43675.708333333336</v>
+      </c>
+      <c r="I33" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J33" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="K33" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="L33" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M33" s="19" t="inlineStr">
+        <is>
+          <t>浙AC21X9</t>
+        </is>
+      </c>
+      <c r="N33" s="20" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="O33" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P33" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q33" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="7" t="inlineStr">
+        <is>
+          <t>GX20190727122210057</t>
+        </is>
+      </c>
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C34" s="9" t="n">
+        <v>43673.51527777778</v>
+      </c>
+      <c r="D34" s="10" t="inlineStr">
+        <is>
+          <t>王为民</t>
+        </is>
+      </c>
+      <c r="E34" s="11" t="inlineStr">
+        <is>
+          <t>13858002607</t>
+        </is>
+      </c>
+      <c r="F34" s="12" t="n">
+        <v>43673.583333333336</v>
+      </c>
+      <c r="G34" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H34" s="14" t="n">
+        <v>43675.583333333336</v>
+      </c>
+      <c r="I34" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J34" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田元通城北店</t>
+        </is>
+      </c>
+      <c r="K34" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田元通城北店</t>
+        </is>
+      </c>
+      <c r="L34" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M34" s="19" t="inlineStr">
+        <is>
+          <t>浙A5G6E3</t>
+        </is>
+      </c>
+      <c r="N34" s="20" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="O34" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P34" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q34" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="7" t="inlineStr">
+        <is>
+          <t>GX20190727114934587</t>
+        </is>
+      </c>
+      <c r="B35" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C35" s="9" t="n">
+        <v>43673.49236111111</v>
+      </c>
+      <c r="D35" s="10" t="inlineStr">
+        <is>
+          <t>tom</t>
+        </is>
+      </c>
+      <c r="E35" s="11" t="inlineStr">
+        <is>
+          <t>13588395741</t>
+        </is>
+      </c>
+      <c r="F35" s="12" t="n">
+        <v>43673.5</v>
+      </c>
+      <c r="G35" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H35" s="14" t="n">
+        <v>43675.5</v>
+      </c>
+      <c r="I35" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J35" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="K35" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田全通绍兴路店</t>
+        </is>
+      </c>
+      <c r="L35" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M35" s="19" t="inlineStr">
+        <is>
+          <t>浙A970QT</t>
+        </is>
+      </c>
+      <c r="N35" s="20" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O35" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P35" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q35" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="7" t="inlineStr">
+        <is>
+          <t>GX20190727093947416</t>
+        </is>
+      </c>
+      <c r="B36" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C36" s="9" t="n">
+        <v>43673.402083333334</v>
+      </c>
+      <c r="D36" s="10" t="inlineStr">
+        <is>
+          <t>位海龙</t>
+        </is>
+      </c>
+      <c r="E36" s="11" t="inlineStr">
+        <is>
+          <t>13777579370</t>
+        </is>
+      </c>
+      <c r="F36" s="12" t="n">
+        <v>43673.5</v>
+      </c>
+      <c r="G36" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H36" s="14" t="n">
+        <v>43676.5</v>
+      </c>
+      <c r="I36" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J36" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田广成富阳店</t>
+        </is>
+      </c>
+      <c r="K36" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田广成富阳店</t>
+        </is>
+      </c>
+      <c r="L36" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M36" s="19" t="inlineStr">
+        <is>
+          <t>浙A9H8E2</t>
+        </is>
+      </c>
+      <c r="N36" s="20" t="n">
+        <v>412.0</v>
+      </c>
+      <c r="O36" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P36" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q36" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="7" t="inlineStr">
+        <is>
+          <t>GX20190727091805021</t>
+        </is>
+      </c>
+      <c r="B37" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C37" s="9" t="n">
+        <v>43673.3875</v>
+      </c>
+      <c r="D37" s="10" t="inlineStr">
+        <is>
+          <t>位海龙</t>
+        </is>
+      </c>
+      <c r="E37" s="11" t="inlineStr">
+        <is>
+          <t>13777579370</t>
+        </is>
+      </c>
+      <c r="F37" s="12" t="n">
+        <v>43673.479166666664</v>
+      </c>
+      <c r="G37" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H37" s="14" t="n">
+        <v>43676.479166666664</v>
+      </c>
+      <c r="I37" s="15" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="J37" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田广成富阳店</t>
+        </is>
+      </c>
+      <c r="K37" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田广成富阳店</t>
+        </is>
+      </c>
+      <c r="L37" s="18" t="inlineStr">
+        <is>
+          <t>C-HR</t>
+        </is>
+      </c>
+      <c r="M37" s="19" t="inlineStr">
+        <is>
+          <t>浙A9H8E2</t>
+        </is>
+      </c>
+      <c r="N37" s="20" t="n">
+        <v>877.0</v>
+      </c>
+      <c r="O37" s="21" t="inlineStr">
+        <is>
+          <t>已取消</t>
+        </is>
+      </c>
+      <c r="P37" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q37" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="7" t="inlineStr">
+        <is>
+          <t>GX20190718173959638</t>
+        </is>
+      </c>
+      <c r="B38" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C38" s="9" t="n">
+        <v>43664.73611111111</v>
+      </c>
+      <c r="D38" s="10" t="inlineStr">
+        <is>
+          <t>黎雪珍</t>
+        </is>
+      </c>
+      <c r="E38" s="11" t="inlineStr">
+        <is>
+          <t>18928842402</t>
+        </is>
+      </c>
+      <c r="F38" s="12" t="n">
+        <v>43665.458333333336</v>
+      </c>
+      <c r="G38" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H38" s="14" t="n">
+        <v>43667.458333333336</v>
+      </c>
+      <c r="I38" s="15" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="J38" s="16" t="inlineStr">
+        <is>
+          <t>广汽丰田千骅萧山店</t>
+        </is>
+      </c>
+      <c r="K38" s="17" t="inlineStr">
+        <is>
+          <t>广汽丰田千骅萧山店</t>
+        </is>
+      </c>
+      <c r="L38" s="18" t="inlineStr">
+        <is>
+          <t>第八代凯美瑞双擎</t>
+        </is>
+      </c>
+      <c r="M38" s="19" t="inlineStr">
+        <is>
+          <t>浙ACQ731</t>
+        </is>
+      </c>
+      <c r="N38" s="20" t="n">
+        <v>249.0</v>
+      </c>
+      <c r="O38" s="21" t="inlineStr">
+        <is>
+          <t>已还车</t>
+        </is>
+      </c>
+      <c r="P38" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q38" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="7" t="inlineStr">
+        <is>
           <t>GX20190710125646021</t>
         </is>
       </c>
-      <c r="B17" s="8" t="inlineStr">
-        <is>
-          <t>短租</t>
-        </is>
-      </c>
-      <c r="C17" s="9" t="n">
+      <c r="B39" s="8" t="inlineStr">
+        <is>
+          <t>短租</t>
+        </is>
+      </c>
+      <c r="C39" s="9" t="n">
         <v>43656.53888888889</v>
       </c>
-      <c r="D17" s="10" t="inlineStr">
+      <c r="D39" s="10" t="inlineStr">
         <is>
           <t>陈慧</t>
         </is>
       </c>
-      <c r="E17" s="11" t="inlineStr">
+      <c r="E39" s="11" t="inlineStr">
         <is>
           <t>13735515800</t>
         </is>
       </c>
-      <c r="F17" s="12" t="n">
+      <c r="F39" s="12" t="n">
         <v>43656.625</v>
       </c>
-      <c r="G17" s="13" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H17" s="14" t="n">
+      <c r="G39" s="13" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H39" s="14" t="n">
         <v>43663.625</v>
       </c>
-      <c r="I17" s="15" t="inlineStr">
+      <c r="I39" s="15" t="inlineStr">
         <is>
           <t>7.00</t>
         </is>
       </c>
-      <c r="J17" s="16" t="inlineStr">
+      <c r="J39" s="16" t="inlineStr">
         <is>
           <t>广汽丰田广成富阳店</t>
         </is>
       </c>
-      <c r="K17" s="17" t="inlineStr">
+      <c r="K39" s="17" t="inlineStr">
         <is>
           <t>广汽丰田广成富阳店</t>
         </is>
       </c>
-      <c r="L17" s="18" t="inlineStr">
+      <c r="L39" s="18" t="inlineStr">
         <is>
           <t>C-HR</t>
         </is>
       </c>
-      <c r="M17" s="23" t="inlineStr">
+      <c r="M39" s="19" t="inlineStr">
         <is>
           <t>浙A1G8C7</t>
         </is>
       </c>
-      <c r="N17" s="19" t="n">
+      <c r="N39" s="20" t="n">
         <v>1570.0</v>
       </c>
-      <c r="O17" s="20" t="inlineStr">
+      <c r="O39" s="21" t="inlineStr">
         <is>
           <t>已还车</t>
         </is>
       </c>
-      <c r="P17" s="21" t="inlineStr">
-        <is>
-          <t>到店支付</t>
-        </is>
-      </c>
-      <c r="Q17" s="22" t="inlineStr">
+      <c r="P39" s="22" t="inlineStr">
+        <is>
+          <t>到店支付</t>
+        </is>
+      </c>
+      <c r="Q39" s="23" t="inlineStr">
         <is>
           <t/>
         </is>
